--- a/artfynd/A 59147-2025 artfynd.xlsx
+++ b/artfynd/A 59147-2025 artfynd.xlsx
@@ -7536,7 +7536,7 @@
         <v>130619758</v>
       </c>
       <c r="B63" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -7648,7 +7648,7 @@
         <v>130619765</v>
       </c>
       <c r="B64" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -7760,7 +7760,7 @@
         <v>130619759</v>
       </c>
       <c r="B65" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -7872,7 +7872,7 @@
         <v>130619760</v>
       </c>
       <c r="B66" t="n">
-        <v>80344</v>
+        <v>80348</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -7984,7 +7984,7 @@
         <v>130619762</v>
       </c>
       <c r="B67" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>130619761</v>
       </c>
       <c r="B68" t="n">
-        <v>92526</v>
+        <v>92530</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -8205,10 +8205,10 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>130619764</v>
+        <v>130619769</v>
       </c>
       <c r="B69" t="n">
-        <v>57060</v>
+        <v>91804</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -8216,42 +8216,34 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>102612</v>
+        <v>1108</v>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Järpe</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Tetrastes bonasia</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
+          <t>(Fr.) Krieglst.</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="P69" t="inlineStr">
         <is>
           <t>Eliasbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q69" t="n">
-        <v>504059</v>
+        <v>504228</v>
       </c>
       <c r="R69" t="n">
-        <v>7022053</v>
+        <v>7021996</v>
       </c>
       <c r="S69" t="n">
         <v>10</v>
@@ -8283,7 +8275,7 @@
       </c>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>14:36</t>
         </is>
       </c>
       <c r="AA69" t="inlineStr">
@@ -8293,12 +8285,12 @@
       </c>
       <c r="AB69" t="inlineStr">
         <is>
-          <t>13:39</t>
+          <t>14:36</t>
         </is>
       </c>
       <c r="AC69" t="inlineStr">
         <is>
-          <t>Sittande högt upp gammal björk, i skog dominerad av barrträd.</t>
+          <t>På grov torraka av gran, bhd 45 cm</t>
         </is>
       </c>
       <c r="AD69" t="b">
@@ -8325,10 +8317,10 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>130619769</v>
+        <v>130619764</v>
       </c>
       <c r="B70" t="n">
-        <v>91800</v>
+        <v>57064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -8336,34 +8328,42 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1108</v>
+        <v>102612</v>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Järpe</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Tetrastes bonasia</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr"/>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
       <c r="P70" t="inlineStr">
         <is>
           <t>Eliasbodarna, Jmt</t>
         </is>
       </c>
       <c r="Q70" t="n">
-        <v>504228</v>
+        <v>504059</v>
       </c>
       <c r="R70" t="n">
-        <v>7021996</v>
+        <v>7022053</v>
       </c>
       <c r="S70" t="n">
         <v>10</v>
@@ -8395,7 +8395,7 @@
       </c>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>14:36</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AA70" t="inlineStr">
@@ -8405,12 +8405,12 @@
       </c>
       <c r="AB70" t="inlineStr">
         <is>
-          <t>14:36</t>
+          <t>13:39</t>
         </is>
       </c>
       <c r="AC70" t="inlineStr">
         <is>
-          <t>På grov torraka av gran, bhd 45 cm</t>
+          <t>Sittande högt upp gammal björk, i skog dominerad av barrträd.</t>
         </is>
       </c>
       <c r="AD70" t="b">
@@ -8440,7 +8440,7 @@
         <v>130619768</v>
       </c>
       <c r="B71" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -8552,7 +8552,7 @@
         <v>130619767</v>
       </c>
       <c r="B72" t="n">
-        <v>79239</v>
+        <v>79243</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -8664,7 +8664,7 @@
         <v>130619766</v>
       </c>
       <c r="B73" t="n">
-        <v>57880</v>
+        <v>57884</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
